--- a/medicine/Mort/Peine_de_mort_au_Kansas/Peine_de_mort_au_Kansas.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Kansas/Peine_de_mort_au_Kansas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kansas a procédé à 76 exécutions entre 1853 et 1965. À l'exception de la première par peloton d'exécution, toutes l'ont été par pendaison.
-Après un moratoire de 29 ans, la peine capitale a été rétablie en 1994, une tentative de rétablissement ayant échoué en 1979 à cause du veto du gouverneur de l'époque. La loi actuelle prévoit la possibilité pour le juge de mettre son veto à un verdict de mort unanime du jury, ce qui n'est jamais arrivé[1]. En décembre 2004, la Cour suprême du Kansas a jugé la procédure d'application de la peine de mort comme anticonstitutionnelle[2]. Mais l'État du Kansas a fait appel auprès de la Cour suprême des États-Unis qui rétablit la peine de mort en appel (Kansas v. March) en 2006[3]. Les 11 condamnés à mort aujourd'hui incarcérés le sont à El Dorado, et le Kansas dispose d'une salle d'exécution par injection létale qui n'a jamais été utilisée à la prison de Lansing. L'ordre d'exécution est signé par le juge et le gouverneur peut gracier sans préalable.
+Après un moratoire de 29 ans, la peine capitale a été rétablie en 1994, une tentative de rétablissement ayant échoué en 1979 à cause du veto du gouverneur de l'époque. La loi actuelle prévoit la possibilité pour le juge de mettre son veto à un verdict de mort unanime du jury, ce qui n'est jamais arrivé. En décembre 2004, la Cour suprême du Kansas a jugé la procédure d'application de la peine de mort comme anticonstitutionnelle. Mais l'État du Kansas a fait appel auprès de la Cour suprême des États-Unis qui rétablit la peine de mort en appel (Kansas v. March) en 2006. Les 11 condamnés à mort aujourd'hui incarcérés le sont à El Dorado, et le Kansas dispose d'une salle d'exécution par injection létale qui n'a jamais été utilisée à la prison de Lansing. L'ordre d'exécution est signé par le juge et le gouverneur peut gracier sans préalable.
 En 2010, le Sénat du Kansas a refusé (à la suite d'une égalité 20 contre 20) l'abolition de la peine de mort.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Exécutions depuis 1994</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Lansing, au Lansing Correctional Facility (en).
 </t>
@@ -544,7 +558,9 @@
           <t>Condamnés à mort</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En décembre 2018 le couloir de la mort du Kansas compte 10 condamnés. Depuis 1994 aucun condamné n'a été gracié dans le Kansas.
 </t>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
